--- a/openpyxl/insertCharts.xlsx
+++ b/openpyxl/insertCharts.xlsx
@@ -340,9 +340,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>3</col>
+      <col>13</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>0</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
